--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E74A9B-3150-4452-A162-EBDE0EB979DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D38340-2A61-4904-9D5B-F13351967D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Entities" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>_health</t>
-  </si>
-  <si>
-    <t>_meleeAtk</t>
   </si>
   <si>
     <t>_magicAtk</t>
@@ -98,13 +95,25 @@
   <si>
     <t>Accessories</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_physicalAtk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Icons/Equipments/Accessories_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resources/Items/Prefabs/Equipments/Accessories_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +125,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -140,8 +156,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -424,20 +443,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="43.25" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="23.625" customWidth="1"/>
+    <col min="7" max="7" width="42.5" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="12" max="12" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="10.75" customWidth="1"/>
     <col min="15" max="15" width="11.5" customWidth="1"/>
     <col min="16" max="16" width="14.125" customWidth="1"/>
@@ -446,69 +466,75 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
       <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>3</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>7</v>
-      </c>
-      <c r="S1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10201011</v>
+      </c>
       <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>19</v>
+      <c r="D2" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -516,14 +542,17 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="H2">
         <v>24</v>
       </c>
       <c r="I2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>21</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
       </c>
       <c r="K2">
         <v>0</v>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D38340-2A61-4904-9D5B-F13351967D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D69085-B91F-411D-8C30-0E08E8D1C6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
   <si>
     <t>_health</t>
   </si>
@@ -78,10 +78,6 @@
     <t>_grade</t>
   </si>
   <si>
-    <t>나이트비전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NightVision</t>
   </si>
   <si>
@@ -101,11 +97,72 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Items/Icons/Equipments/Accessories_1</t>
+    <t>Helm of Valor</t>
+  </si>
+  <si>
+    <t>용맹의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Accessories_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Resources/Items/Prefabs/Equipments/Accessories_1</t>
+    <t>Items/Icons/Equipments/Armor_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Equipments/Accessories_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Equipments/Armor_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shadow Veil</t>
+  </si>
+  <si>
+    <t>어둠의 장막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Armor_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Equipments/Armor_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PiratePatch</t>
+  </si>
+  <si>
+    <t>해적 패치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Accessories_2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Equipments/Accessories_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -441,16 +498,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="4" width="43.25" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
@@ -493,13 +550,13 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
@@ -531,28 +588,28 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>24</v>
       </c>
       <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -579,6 +636,183 @@
         <v>0</v>
       </c>
       <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10201021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10202011</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>-1</v>
+      </c>
+      <c r="P4">
+        <v>-1</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10202021</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>-2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D69085-B91F-411D-8C30-0E08E8D1C6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E400284-AFDC-42BA-9131-CD01E4AAD508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1095" yWindow="7125" windowWidth="26490" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -501,7 +501,7 @@
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SpartaCoding\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E400284-AFDC-42BA-9131-CD01E4AAD508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54894851-4C21-4775-93F0-241A2D1A96FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="7125" windowWidth="26490" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -500,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54894851-4C21-4775-93F0-241A2D1A96FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA405E8-58F9-4072-80A2-DF0F4730E922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>_health</t>
   </si>
@@ -164,6 +164,14 @@
   <si>
     <t>Items/Prefabs/Equipments/Accessories_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>_itemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -498,196 +506,202 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="43.25" customWidth="1"/>
-    <col min="5" max="5" width="13.25" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="42.5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="12" max="12" width="11.875" customWidth="1"/>
-    <col min="13" max="13" width="10.75" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
-    <col min="16" max="16" width="14.125" customWidth="1"/>
-    <col min="18" max="18" width="12.125" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="5" max="5" width="43.25" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="42.5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
       <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>1</v>
       </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
       <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>6</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10201011</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>-1</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10201021</v>
       </c>
       <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>24</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
@@ -695,60 +709,63 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10202011</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>32</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>3</v>
-      </c>
-      <c r="O4">
-        <v>-1</v>
       </c>
       <c r="P4">
         <v>-1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -756,53 +773,56 @@
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10202021</v>
       </c>
       <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>34</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>35</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>3</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>-2</v>
       </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
       <c r="P5">
         <v>2</v>
       </c>
@@ -810,9 +830,12 @@
         <v>2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA405E8-58F9-4072-80A2-DF0F4730E922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65DE1E-95AA-4541-AA22-D6D32AD5EAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>_health</t>
   </si>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>Equipments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -521,15 +525,15 @@
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="42.5" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="14.125" customWidth="1"/>
-    <col min="19" max="19" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -558,40 +562,43 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
       <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>1</v>
       </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
       <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>4</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>6</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10201011</v>
       </c>
@@ -619,41 +626,44 @@
       <c r="I2">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
       <c r="M2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>-1</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
       <c r="R2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10201021</v>
       </c>
@@ -681,30 +691,30 @@
       <c r="I3">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>20</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>1</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
         <v>0</v>
       </c>
@@ -712,10 +722,13 @@
         <v>0</v>
       </c>
       <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10202011</v>
       </c>
@@ -743,32 +756,32 @@
       <c r="I4">
         <v>32</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>29</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>5</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>3</v>
-      </c>
-      <c r="P4">
-        <v>-1</v>
       </c>
       <c r="Q4">
         <v>-1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -776,8 +789,11 @@
       <c r="T4">
         <v>0</v>
       </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10202021</v>
       </c>
@@ -805,27 +821,27 @@
       <c r="I5">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
         <v>34</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>35</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
       <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>-2</v>
       </c>
-      <c r="P5">
-        <v>2</v>
-      </c>
       <c r="Q5">
         <v>2</v>
       </c>
@@ -833,9 +849,12 @@
         <v>2</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D65DE1E-95AA-4541-AA22-D6D32AD5EAD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F7430A-91BB-4DA8-BA9D-8146BBC6B4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F7430A-91BB-4DA8-BA9D-8146BBC6B4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA514F-4A73-4933-818A-463BDF811E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>_health</t>
   </si>
@@ -176,6 +176,29 @@
   <si>
     <t>_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuneStone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>룬스톤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/RuneStone/RuneStone_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runestone</t>
   </si>
 </sst>
 </file>
@@ -510,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -600,46 +623,46 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10201011</v>
+        <v>10121011</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
+      <c r="H2" t="s">
+        <v>46</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -648,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -665,34 +688,34 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10201021</v>
+        <v>10201011</v>
       </c>
       <c r="B3" t="s">
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="I3">
         <v>24</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -704,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -713,75 +736,75 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>10202011</v>
+        <v>10201021</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -790,71 +813,136 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10202021</v>
+        <v>10202011</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5">
         <v>32</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5">
-        <v>34</v>
       </c>
       <c r="J5">
         <v>7</v>
       </c>
       <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>-1</v>
+      </c>
+      <c r="R5">
+        <v>-1</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10202021</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6">
         <v>34</v>
       </c>
-      <c r="L5" t="s">
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
         <v>35</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>3</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>-2</v>
       </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFA514F-4A73-4933-818A-463BDF811E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813D6BAE-3149-47E9-9AEA-9813466A0A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>_health</t>
   </si>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>None</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -536,7 +532,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -548,6 +544,7 @@
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
     <col min="8" max="8" width="42.5" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
     <col min="14" max="14" width="11.875" customWidth="1"/>
     <col min="15" max="15" width="10.75" customWidth="1"/>
@@ -623,7 +620,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10121011</v>
+        <v>10112011</v>
       </c>
       <c r="B2" t="s">
         <v>41</v>
@@ -653,10 +650,10 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
         <v>47</v>
-      </c>
-      <c r="L2" t="s">
-        <v>48</v>
       </c>
       <c r="M2">
         <v>0</v>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813D6BAE-3149-47E9-9AEA-9813466A0A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB15A92-992D-46FB-AB5A-767818EE0D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1050" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>_health</t>
   </si>
@@ -195,6 +195,22 @@
   </si>
   <si>
     <t>Runestone</t>
+  </si>
+  <si>
+    <t>NerdGlass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법 공격이 증가합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Prefabs/Equipments/Accessories_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Accessories_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -529,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -815,64 +831,64 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>10202011</v>
+        <v>10201031</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="I5">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -880,66 +896,131 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10202021</v>
+        <v>10202011</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6">
         <v>32</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6">
-        <v>34</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>-1</v>
+      </c>
+      <c r="R6">
+        <v>-1</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10202021</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7">
         <v>34</v>
       </c>
-      <c r="L6" t="s">
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" t="s">
         <v>35</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <v>3</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>-2</v>
       </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-      <c r="R6">
-        <v>2</v>
-      </c>
-      <c r="S6">
-        <v>2</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>2</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBB15A92-992D-46FB-AB5A-767818EE0D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC00FA-064F-44A1-A2CC-929F0D4BCAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
   <si>
     <t>_health</t>
   </si>
@@ -78,9 +78,6 @@
     <t>_grade</t>
   </si>
   <si>
-    <t>NightVision</t>
-  </si>
-  <si>
     <t>_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,13 +91,6 @@
   </si>
   <si>
     <t>_physicalAtk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Helm of Valor</t>
-  </si>
-  <si>
-    <t>용맹의 투구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -128,13 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shadow Veil</t>
-  </si>
-  <si>
-    <t>어둠의 장막</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Icons/Equipments/Armor_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -151,13 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PiratePatch</t>
-  </si>
-  <si>
-    <t>해적 패치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Items/Icons/Equipments/Accessories_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -197,10 +173,6 @@
     <t>Runestone</t>
   </si>
   <si>
-    <t>NerdGlass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마법 공격이 증가합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,6 +183,103 @@
   <si>
     <t>Items/Icons/Equipments/Accessories_3</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RuneStone</t>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Armor_3</t>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용맹의 방패</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Armor_4</t>
+  </si>
+  <si>
+    <t>죽음모자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 하나면 히말라야도 충분하지!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Accessories_4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Accessories_5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼이 든 지팡이. 다만 장식용이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠 속에서도 볼 수 있습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착용하는 것만으로도 용기가 납니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠 속으로…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>야간 투시경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해적 패치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너드 안경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지팡이칼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용맹의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착용하면 용맹해질지도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠의 장막</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>들면 용맹해질지도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어라… 데스켑…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -545,17 +614,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
     <col min="5" max="5" width="43.25" customWidth="1"/>
     <col min="6" max="6" width="13.25" customWidth="1"/>
     <col min="7" max="7" width="15.75" customWidth="1"/>
@@ -574,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -598,19 +667,19 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1" t="s">
         <v>1</v>
@@ -639,16 +708,16 @@
         <v>10112011</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -657,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -666,10 +735,10 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -704,16 +773,16 @@
         <v>10201011</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -722,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3">
         <v>24</v>
@@ -731,16 +800,16 @@
         <v>5</v>
       </c>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -769,16 +838,16 @@
         <v>10201021</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -787,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>24</v>
@@ -796,16 +865,16 @@
         <v>2</v>
       </c>
       <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -826,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -834,16 +903,16 @@
         <v>10201031</v>
       </c>
       <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -852,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="I5">
         <v>28</v>
@@ -861,11 +930,11 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
       <c r="M5">
         <v>0</v>
       </c>
@@ -873,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -896,58 +965,58 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>10202011</v>
+        <v>10201041</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>5</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -961,66 +1030,326 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
+        <v>10201051</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>15</v>
+      </c>
+      <c r="O7">
+        <v>15</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10202011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8">
+        <v>32</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>-1</v>
+      </c>
+      <c r="R8">
+        <v>-1</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>10202021</v>
       </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>34</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>10</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>-2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>10</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10202031</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
         <v>32</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7">
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>20</v>
+      </c>
+      <c r="Q10">
+        <v>-1</v>
+      </c>
+      <c r="R10">
+        <v>-1</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10202041</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="J7">
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11">
+        <v>46</v>
+      </c>
+      <c r="J11">
         <v>7</v>
       </c>
-      <c r="K7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>35</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>3</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
+      <c r="P11">
         <v>-2</v>
       </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-      <c r="R7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC00FA-064F-44A1-A2CC-929F0D4BCAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272E245-6218-47EF-81DE-01B1E8AD6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>2</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>5</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P11">
         <v>-2</v>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C272E245-6218-47EF-81DE-01B1E8AD6FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918E5CF-7E59-4967-A910-0FEAF9C9EE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -924,7 +924,7 @@
         <v>42</v>
       </c>
       <c r="I5">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="P11">
         <v>-2</v>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9918E5CF-7E59-4967-A910-0FEAF9C9EE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F21C868-49F2-4DCA-A5DB-64DA846C20C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="1005" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>_health</t>
   </si>
@@ -279,6 +279,30 @@
   </si>
   <si>
     <t>어라… 데스켑…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Items/Icons/Equipments/Armor_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용맹의 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착용하면 강해질지도?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -809,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -942,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -1314,13 +1338,13 @@
         <v>39</v>
       </c>
       <c r="I11">
-        <v>46</v>
+        <v>182</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="L11" t="s">
         <v>26</v>
@@ -1332,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="P11">
         <v>-2</v>
@@ -1350,6 +1374,71 @@
         <v>10</v>
       </c>
       <c r="U11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10202051</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I12">
+        <v>192</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>69</v>
+      </c>
+      <c r="L12" t="s">
+        <v>72</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12">
+        <v>35</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>5</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>3</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
+      </c>
+      <c r="U12">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F21C868-49F2-4DCA-A5DB-64DA846C20C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A5DE9-0FC9-4B12-9B4F-D4FAD6332D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,10 +266,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>착용하면 용맹해질지도?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>어둠의 장막</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,11 +294,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>용맹의 투구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>착용하면 강해질지도?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이트 투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>착용하면 옹맹해질지도?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +641,7 @@
   <dimension ref="A1:U12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -842,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>32</v>
       </c>
       <c r="I4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -1125,10 +1125,10 @@
         <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -1190,7 +1190,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>58</v>
@@ -1258,7 +1258,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>45</v>
@@ -1323,7 +1323,7 @@
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>50</v>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L11" t="s">
         <v>26</v>
@@ -1385,22 +1385,22 @@
         <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="I12">
         <v>192</v>
@@ -1409,10 +1409,10 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12">
         <v>10</v>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A5DE9-0FC9-4B12-9B4F-D4FAD6332D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A271E41E-0CBF-4FBE-A807-5F0F47398FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
   <si>
     <t>_health</t>
   </si>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Normal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Armor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,6 +292,12 @@
   <si>
     <t>착용하면 옹맹해질지도?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Unique</t>
   </si>
 </sst>
 </file>
@@ -640,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>9</v>
@@ -691,7 +685,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K1" t="s">
         <v>16</v>
@@ -732,16 +726,16 @@
         <v>10112011</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -750,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -759,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -797,13 +791,13 @@
         <v>10201011</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>21</v>
@@ -818,7 +812,7 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -833,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -848,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -862,16 +856,16 @@
         <v>10201021</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -880,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -895,19 +889,19 @@
         <v>19</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -919,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -927,16 +921,16 @@
         <v>10201031</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -945,10 +939,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -972,16 +966,16 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -992,16 +986,16 @@
         <v>10201041</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1010,16 +1004,16 @@
         <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="J6">
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -1028,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>5</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
       <c r="S6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -1057,16 +1051,16 @@
         <v>10201051</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1075,16 +1069,16 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I7">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J7">
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L7" t="s">
         <v>19</v>
@@ -1093,28 +1087,28 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -1122,13 +1116,13 @@
         <v>10202011</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
@@ -1143,16 +1137,16 @@
         <v>24</v>
       </c>
       <c r="I8">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" t="s">
         <v>25</v>
-      </c>
-      <c r="L8" t="s">
-        <v>26</v>
       </c>
       <c r="M8">
         <v>20</v>
@@ -1164,22 +1158,22 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
         <v>5</v>
-      </c>
-      <c r="Q8">
-        <v>-1</v>
-      </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -1187,16 +1181,16 @@
         <v>10202021</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -1205,43 +1199,43 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="J9">
         <v>7</v>
       </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>5</v>
       </c>
-      <c r="N9">
+      <c r="R9">
+        <v>5</v>
+      </c>
+      <c r="S9">
         <v>10</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>-2</v>
-      </c>
-      <c r="Q9">
-        <v>2</v>
-      </c>
-      <c r="R9">
-        <v>1</v>
-      </c>
-      <c r="S9">
-        <v>5</v>
-      </c>
       <c r="T9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1252,16 +1246,16 @@
         <v>10202031</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1270,22 +1264,22 @@
         <v>3</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I10">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="J10">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="L10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1297,10 +1291,10 @@
         <v>20</v>
       </c>
       <c r="Q10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1309,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1317,16 +1311,16 @@
         <v>10202041</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1335,19 +1329,19 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I11">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="J11">
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1359,16 +1353,16 @@
         <v>35</v>
       </c>
       <c r="P11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T11">
         <v>10</v>
@@ -1382,16 +1376,16 @@
         <v>10202051</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -1400,22 +1394,22 @@
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="J12">
         <v>7</v>
       </c>
       <c r="K12" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" t="s">
         <v>68</v>
       </c>
-      <c r="L12" t="s">
-        <v>71</v>
-      </c>
       <c r="M12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>35</v>
@@ -1424,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\Sisyphus\Assets\Excel\Items\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A271E41E-0CBF-4FBE-A807-5F0F47398FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38E246-4850-4D2C-B254-7F817CF4C946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="R7">
         <v>3</v>
@@ -1229,7 +1229,7 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="R11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S11">
         <v>10</v>
@@ -1424,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>10</v>

--- a/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
+++ b/Assets/Excel/Items/EquipmentsDB_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\babyg\Desktop\Coding\unity\Sisyphus\Assets\Excel\Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B38E246-4850-4D2C-B254-7F817CF4C946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4FA60C-7326-4C88-8889-60B200FDF939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="2340" windowWidth="37440" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>_health</t>
   </si>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>지팡이칼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>용맹의 투구</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +294,14 @@
   </si>
   <si>
     <t>Unique</t>
+  </si>
+  <si>
+    <t>대단한지팡이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -634,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1013,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" t="s">
         <v>19</v>
@@ -1048,61 +1052,61 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>10201051</v>
+        <v>10202011</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
       </c>
       <c r="I7">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1113,114 +1117,114 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>10202011</v>
+        <v>10202021</v>
       </c>
       <c r="B8" t="s">
         <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I8">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J8">
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>20</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <v>10</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>10202021</v>
+        <v>10201051</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="I9">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L9" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O9">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1229,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -1238,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -1252,7 +1256,7 @@
         <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>43</v>
@@ -1273,7 +1277,7 @@
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" t="s">
         <v>45</v>
@@ -1317,7 +1321,7 @@
         <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>47</v>
@@ -1338,7 +1342,7 @@
         <v>7</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="s">
         <v>25</v>
@@ -1379,22 +1383,22 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="I12">
         <v>190</v>
@@ -1403,10 +1407,10 @@
         <v>7</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M12">
         <v>0</v>
